--- a/attached_assets/PED 2_1763437023609.xlsx
+++ b/attached_assets/PED 2_1763437023609.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtnenggdiv-my.sharepoint.com/personal/gtnit_gtnengg_net/Documents/Narain_IT/Desktop/Contract Review/attached_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{EA7F0319-7EF3-46BD-80BA-A7EF980FB18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E2D90B5-716E-4499-84D0-591E3E4DDA23}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{EA7F0319-7EF3-46BD-80BA-A7EF980FB18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8820E3E-746A-40EE-8855-D7C18867BA63}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PED-2" sheetId="17" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="CUSTOMER">#REF!</definedName>
     <definedName name="FMCCustomer">[1]Sheet12!$A$1:$A$13</definedName>
     <definedName name="FMCzone">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PED-2'!$A$1:$AE$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PED-2'!$A$1:$AE$40</definedName>
     <definedName name="Region">#REF!</definedName>
     <definedName name="zone" localSheetId="0">#REF!</definedName>
     <definedName name="zone">#REF!</definedName>
@@ -385,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -781,26 +781,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -834,19 +821,50 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,10 +876,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,161 +1071,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1587,10 +1546,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:J38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1622,266 +1581,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="e" vm="1">
+      <c r="A1" s="66" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="30" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33" t="s">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="78"/>
     </row>
     <row r="2" spans="1:31" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="42" t="s">
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="44"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="87"/>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="45" t="s">
+      <c r="L3" s="94"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="49"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="62"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="54"/>
     </row>
     <row r="5" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="63" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="64" t="s">
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="63" t="s">
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
       <c r="AB5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="67" t="s">
+      <c r="AC5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="69"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="61"/>
     </row>
     <row r="6" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="70" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="70" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="70" t="s">
+      <c r="L6" s="64"/>
+      <c r="M6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="70" t="s">
+      <c r="N6" s="64"/>
+      <c r="O6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="70" t="s">
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="70" t="s">
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="72"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="64"/>
       <c r="AB6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="62"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="54"/>
     </row>
     <row r="7" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
@@ -1889,32 +1848,32 @@
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="75"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="16"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="78"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="19"/>
     </row>
     <row r="8" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -1922,32 +1881,32 @@
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="75"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="16"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="78"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
@@ -1955,32 +1914,32 @@
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="75"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="16"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="78"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="19"/>
     </row>
     <row r="10" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
@@ -1988,32 +1947,32 @@
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="75"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="16"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="78"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="19"/>
     </row>
     <row r="11" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
@@ -2021,32 +1980,32 @@
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="75"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="16"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="78"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -2054,32 +2013,32 @@
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="75"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="16"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="78"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="19"/>
     </row>
     <row r="13" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
@@ -2087,32 +2046,32 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="75"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="16"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="78"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
@@ -2120,32 +2079,32 @@
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="75"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="16"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="78"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="19"/>
     </row>
     <row r="15" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -2153,32 +2112,32 @@
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="75"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="16"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="78"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
@@ -2186,32 +2145,32 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="75"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="16"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="78"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="19"/>
     </row>
     <row r="17" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -2219,32 +2178,32 @@
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="75"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="16"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="78"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="19"/>
     </row>
     <row r="18" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -2252,32 +2211,32 @@
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="75"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="16"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="78"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="19"/>
     </row>
     <row r="19" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
@@ -2285,32 +2244,32 @@
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="75"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="16"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="78"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -2318,32 +2277,32 @@
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="75"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="78"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
@@ -2351,32 +2310,32 @@
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="75"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="16"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="78"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="19"/>
     </row>
     <row r="22" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
@@ -2384,32 +2343,32 @@
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="75"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="16"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="78"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="19"/>
     </row>
     <row r="23" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
@@ -2417,32 +2376,32 @@
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="75"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="16"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="78"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="19"/>
     </row>
     <row r="24" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
@@ -2450,32 +2409,32 @@
       <c r="C24" s="10"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="75"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="16"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="78"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="19"/>
     </row>
     <row r="25" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
@@ -2483,32 +2442,32 @@
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="75"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="16"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="78"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="19"/>
     </row>
     <row r="26" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
@@ -2516,32 +2475,32 @@
       <c r="C26" s="10"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="75"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="16"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="78"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="19"/>
     </row>
     <row r="27" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
@@ -2549,32 +2508,32 @@
       <c r="C27" s="10"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="75"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="16"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="78"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="19"/>
     </row>
     <row r="28" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -2582,32 +2541,32 @@
       <c r="C28" s="10"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="75"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="16"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="78"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="19"/>
     </row>
     <row r="29" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
@@ -2615,32 +2574,32 @@
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="75"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="16"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="76"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="78"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="19"/>
     </row>
     <row r="30" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
@@ -2648,32 +2607,32 @@
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="75"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="16"/>
       <c r="AB30" s="11"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="78"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="19"/>
     </row>
     <row r="31" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -2681,32 +2640,32 @@
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="75"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="16"/>
       <c r="AB31" s="11"/>
-      <c r="AC31" s="76"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="78"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="19"/>
     </row>
     <row r="32" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
@@ -2714,32 +2673,32 @@
       <c r="C32" s="10"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="75"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="16"/>
       <c r="AB32" s="11"/>
-      <c r="AC32" s="76"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="78"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="19"/>
     </row>
     <row r="33" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
@@ -2747,32 +2706,32 @@
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="75"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="11"/>
-      <c r="AC33" s="76"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="78"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
@@ -2780,32 +2739,32 @@
       <c r="C34" s="10"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
-      <c r="AA34" s="75"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="16"/>
       <c r="AB34" s="11"/>
-      <c r="AC34" s="76"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="78"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="19"/>
     </row>
     <row r="35" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
@@ -2813,32 +2772,32 @@
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="77"/>
-      <c r="V35" s="77"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="75"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="16"/>
       <c r="AB35" s="11"/>
-      <c r="AC35" s="76"/>
-      <c r="AD35" s="77"/>
-      <c r="AE35" s="78"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="19"/>
     </row>
     <row r="36" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -2846,244 +2805,423 @@
       <c r="C36" s="10"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="77"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="75"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="16"/>
       <c r="AB36" s="11"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="77"/>
-      <c r="AE36" s="78"/>
-    </row>
-    <row r="37" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="19"/>
+    </row>
+    <row r="37" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="21"/>
-    </row>
-    <row r="38" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="103"/>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="105"/>
-      <c r="AB38" s="106"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="22"/>
-    </row>
-    <row r="39" spans="1:31" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="89" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="65"/>
+    </row>
+    <row r="38" spans="1:31" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="83" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="91" t="s">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="92"/>
-      <c r="M39" s="83" t="s">
+      <c r="L38" s="42"/>
+      <c r="M38" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83" t="s">
+      <c r="N38" s="33"/>
+      <c r="O38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="83" t="s">
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="U39" s="83"/>
-      <c r="V39" s="83"/>
-      <c r="W39" s="83"/>
-      <c r="X39" s="83" t="s">
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="Y39" s="83"/>
-      <c r="Z39" s="83"/>
-      <c r="AA39" s="83"/>
-      <c r="AB39" s="7" t="s">
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="85"/>
-    </row>
-    <row r="40" spans="1:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="93" t="s">
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="35"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="94"/>
-      <c r="AA40" s="94"/>
-      <c r="AB40" s="94"/>
-      <c r="AC40" s="94"/>
-      <c r="AD40" s="94"/>
-      <c r="AE40" s="95"/>
-    </row>
-    <row r="41" spans="1:31" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86" t="s">
+      <c r="B39" s="45"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="45"/>
+    </row>
+    <row r="40" spans="1:31" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
-      <c r="V41" s="87"/>
-      <c r="W41" s="87"/>
-      <c r="X41" s="87"/>
-      <c r="Y41" s="87"/>
-      <c r="Z41" s="87"/>
-      <c r="AA41" s="87"/>
-      <c r="AB41" s="87"/>
-      <c r="AC41" s="87"/>
-      <c r="AD41" s="87"/>
-      <c r="AE41" s="88"/>
-    </row>
-    <row r="46" spans="1:31" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="I48" s="5"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="38"/>
+    </row>
+    <row r="45" spans="1:31" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="I47" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="269">
-    <mergeCell ref="X34:AA34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="A37:E37"/>
+  <mergeCells count="262">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AC5:AE6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="A40:AE40"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:L37"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M37:N37"/>
     <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="O38:S38"/>
     <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="C39:AE39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:S23"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:S32"/>
     <mergeCell ref="T32:W32"/>
@@ -3108,235 +3246,16 @@
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:S34"/>
     <mergeCell ref="T34:W34"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="A41:AE41"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="C40:AE40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AC5:AE6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AC37:AE38"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="C2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="AC37:AE37"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 D3:E3 K3 M3 W3 AF3:XFD3">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
